--- a/Datasets/data.xlsx
+++ b/Datasets/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janakidevikora/Python_GIT/D3-DataJournalism/Datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\DSCBC\D3.Analysis\D3\D3-project\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{55929844-BF07-483F-BD0B-0FAB4DEB11FA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="460" windowWidth="25040" windowHeight="14080" xr2:uid="{625819AB-96A8-5741-B23A-0FBD3B94BC9B}"/>
+    <workbookView xWindow="1095" yWindow="465" windowWidth="25035" windowHeight="14085" xr2:uid="{625819AB-96A8-5741-B23A-0FBD3B94BC9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -564,23 +565,23 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -606,7 +607,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -632,7 +633,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -658,7 +659,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -684,7 +685,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -710,7 +711,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -736,7 +737,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -762,7 +763,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -788,7 +789,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -814,7 +815,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -840,7 +841,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -866,7 +867,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -892,7 +893,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>15</v>
       </c>
@@ -918,7 +919,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>16</v>
       </c>
@@ -944,7 +945,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>17</v>
       </c>
@@ -970,7 +971,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>18</v>
       </c>
@@ -996,7 +997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>19</v>
       </c>
@@ -1022,7 +1023,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20</v>
       </c>
@@ -1048,7 +1049,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>21</v>
       </c>
@@ -1074,7 +1075,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>22</v>
       </c>
@@ -1100,7 +1101,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>23</v>
       </c>
@@ -1126,7 +1127,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24</v>
       </c>
@@ -1152,7 +1153,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>25</v>
       </c>
@@ -1178,7 +1179,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>26</v>
       </c>
@@ -1204,7 +1205,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>27</v>
       </c>
@@ -1230,7 +1231,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>28</v>
       </c>
@@ -1256,7 +1257,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>29</v>
       </c>
@@ -1282,7 +1283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>30</v>
       </c>
@@ -1308,7 +1309,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>31</v>
       </c>
@@ -1334,7 +1335,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>32</v>
       </c>
@@ -1360,7 +1361,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>33</v>
       </c>
@@ -1386,7 +1387,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>34</v>
       </c>
@@ -1412,7 +1413,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>35</v>
       </c>
@@ -1438,7 +1439,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>36</v>
       </c>
@@ -1464,7 +1465,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>37</v>
       </c>
@@ -1490,7 +1491,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>38</v>
       </c>
@@ -1516,7 +1517,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>39</v>
       </c>
@@ -1542,7 +1543,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>40</v>
       </c>
@@ -1568,7 +1569,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>41</v>
       </c>
@@ -1594,7 +1595,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>42</v>
       </c>
@@ -1620,7 +1621,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>44</v>
       </c>
@@ -1646,7 +1647,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>45</v>
       </c>
@@ -1672,7 +1673,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>46</v>
       </c>
@@ -1698,7 +1699,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>47</v>
       </c>
@@ -1724,7 +1725,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>48</v>
       </c>
@@ -1750,7 +1751,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>49</v>
       </c>
@@ -1776,7 +1777,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>50</v>
       </c>
@@ -1802,7 +1803,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>51</v>
       </c>
@@ -1828,7 +1829,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>53</v>
       </c>
@@ -1854,7 +1855,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>54</v>
       </c>
@@ -1880,7 +1881,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>55</v>
       </c>
@@ -1906,7 +1907,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>56</v>
       </c>
@@ -1932,12 +1933,12 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>56</v>
       </c>
